--- a/biology/Botanique/Smilax_australis/Smilax_australis.xlsx
+++ b/biology/Botanique/Smilax_australis/Smilax_australis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Smilax australis est une plante grimpante monocotylédone appartenant au genre Smilax, qui fait lui-même partie de l’ordre des Liliales et de la famille des Smilacacées endémique en Australie.
 Ses tiges épineuses font jusqu'à 8 mètres de long et portent des vrilles qui mesurent jusqu'à 20 cm de long. Les feuilles luisantes ont 5 nervures longitudinales proéminentes et font de 5 à 15 cm de long sur 3 à 10 cm de largeur.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce se rencontre dans les forêts tropicales, les forêts sclérophylles, les forêts et les landes du Territoire du Nord, du Queensland, de la Nouvelle-Galles du Sud, du Victoria et à l'extrême nord ouest de l'Australie.
 </t>
